--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业年末从业人数.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1887 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86184</v>
+        <v>308060</v>
       </c>
       <c r="C2" t="n">
-        <v>25841</v>
+        <v>17410</v>
       </c>
       <c r="D2" t="n">
-        <v>53806</v>
+        <v>53722</v>
       </c>
       <c r="E2" t="n">
-        <v>1282173</v>
+        <v>2108179</v>
       </c>
       <c r="F2" t="n">
-        <v>6891</v>
+        <v>32123</v>
       </c>
       <c r="G2" t="n">
-        <v>14358</v>
+        <v>42347</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>216296</v>
+        <v>533054</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>2403</v>
+        <v>1681</v>
       </c>
       <c r="L2" t="n">
-        <v>1057812</v>
+        <v>1836644</v>
       </c>
       <c r="M2" t="n">
-        <v>4319</v>
+        <v>2558</v>
       </c>
       <c r="N2" t="n">
-        <v>424171</v>
+        <v>451920</v>
       </c>
       <c r="O2" t="n">
-        <v>17014</v>
+        <v>22533</v>
       </c>
       <c r="P2" t="n">
-        <v>9552</v>
+        <v>4881</v>
       </c>
       <c r="Q2" t="n">
-        <v>96238</v>
+        <v>113343</v>
       </c>
       <c r="R2" t="n">
-        <v>976</v>
+        <v>2739</v>
       </c>
       <c r="S2" t="n">
-        <v>15615</v>
+        <v>39472</v>
       </c>
       <c r="T2" t="n">
-        <v>1181631</v>
+        <v>1757772</v>
       </c>
       <c r="U2" t="n">
-        <v>233310</v>
+        <v>555587</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>30287</v>
+        <v>22692</v>
       </c>
       <c r="X2" t="n">
-        <v>80955</v>
+        <v>80639</v>
       </c>
       <c r="Y2" t="n">
-        <v>128123</v>
+        <v>158192</v>
       </c>
       <c r="Z2" t="n">
-        <v>910</v>
+        <v>4027</v>
       </c>
       <c r="AA2" t="n">
-        <v>15971</v>
+        <v>50834</v>
       </c>
       <c r="AB2" t="n">
-        <v>226445</v>
+        <v>626475</v>
       </c>
       <c r="AC2" t="n">
-        <v>10536</v>
+        <v>30476</v>
       </c>
       <c r="AD2" t="n">
-        <v>150105</v>
+        <v>431137</v>
       </c>
       <c r="AE2" t="n">
-        <v>50593</v>
+        <v>126260</v>
       </c>
       <c r="AF2" t="n">
-        <v>15211</v>
+        <v>38602</v>
       </c>
       <c r="AG2" t="n">
-        <v>18155</v>
+        <v>10472</v>
       </c>
       <c r="AH2" t="n">
-        <v>21910</v>
+        <v>21322</v>
       </c>
       <c r="AI2" t="n">
-        <v>51214</v>
+        <v>76564</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75716</v>
+        <v>62181</v>
       </c>
       <c r="AK2" t="n">
-        <v>1881</v>
+        <v>1352</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>345890</v>
+      </c>
       <c r="C3" t="n">
-        <v>26848</v>
+        <v>16433</v>
       </c>
       <c r="D3" t="n">
-        <v>61047</v>
+        <v>47604</v>
       </c>
       <c r="E3" t="n">
-        <v>1529270</v>
+        <v>2156638</v>
       </c>
       <c r="F3" t="n">
-        <v>10474</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>72957</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41732</v>
+      </c>
+      <c r="H3" t="n">
+        <v>906</v>
+      </c>
       <c r="I3" t="n">
-        <v>297946</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>600930</v>
+      </c>
+      <c r="J3" t="n">
+        <v>606</v>
+      </c>
       <c r="K3" t="n">
-        <v>2765</v>
+        <v>1736</v>
       </c>
       <c r="L3" t="n">
-        <v>1269901</v>
+        <v>1897017</v>
       </c>
       <c r="M3" t="n">
-        <v>2844</v>
+        <v>1431</v>
       </c>
       <c r="N3" t="n">
-        <v>471377</v>
+        <v>424571</v>
       </c>
       <c r="O3" t="n">
-        <v>23813</v>
+        <v>22673</v>
       </c>
       <c r="P3" t="n">
-        <v>8999</v>
+        <v>4052</v>
       </c>
       <c r="Q3" t="n">
-        <v>109828</v>
+        <v>106621</v>
       </c>
       <c r="R3" t="n">
-        <v>1202</v>
+        <v>3839</v>
       </c>
       <c r="S3" t="n">
-        <v>20731</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>37839</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1769016</v>
+      </c>
       <c r="U3" t="n">
-        <v>321759</v>
+        <v>623603</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>35694</v>
+        <v>20407</v>
       </c>
       <c r="X3" t="n">
-        <v>93548</v>
+        <v>78299</v>
       </c>
       <c r="Y3" t="n">
-        <v>149541</v>
+        <v>153000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1873</v>
+        <v>5484</v>
       </c>
       <c r="AA3" t="n">
-        <v>18426</v>
+        <v>48204</v>
       </c>
       <c r="AB3" t="n">
-        <v>272006</v>
+        <v>610168</v>
       </c>
       <c r="AC3" t="n">
-        <v>10656</v>
+        <v>28370</v>
       </c>
       <c r="AD3" t="n">
-        <v>187895</v>
+        <v>443360</v>
       </c>
       <c r="AE3" t="n">
-        <v>54636</v>
+        <v>102348</v>
       </c>
       <c r="AF3" t="n">
-        <v>18819</v>
+        <v>36090</v>
       </c>
       <c r="AG3" t="n">
-        <v>16143</v>
+        <v>8417</v>
       </c>
       <c r="AH3" t="n">
-        <v>24994</v>
+        <v>18378</v>
       </c>
       <c r="AI3" t="n">
-        <v>72331</v>
+        <v>81131</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80817</v>
+        <v>57792</v>
       </c>
       <c r="AK3" t="n">
-        <v>1535</v>
+        <v>1198</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>330929</v>
+      </c>
       <c r="C4" t="n">
-        <v>22553</v>
+        <v>16566</v>
       </c>
       <c r="D4" t="n">
-        <v>59775</v>
+        <v>46639</v>
       </c>
       <c r="E4" t="n">
-        <v>1622808</v>
+        <v>2169873</v>
       </c>
       <c r="F4" t="n">
-        <v>11012</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>77246</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40746</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1165</v>
+      </c>
       <c r="I4" t="n">
-        <v>330341</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>647582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>317</v>
+      </c>
       <c r="K4" t="n">
-        <v>1926</v>
+        <v>1269</v>
       </c>
       <c r="L4" t="n">
-        <v>1355514</v>
+        <v>1921309</v>
       </c>
       <c r="M4" t="n">
-        <v>3214</v>
+        <v>1413</v>
       </c>
       <c r="N4" t="n">
-        <v>479280</v>
+        <v>413117</v>
       </c>
       <c r="O4" t="n">
-        <v>21669</v>
+        <v>25971</v>
       </c>
       <c r="P4" t="n">
-        <v>9295</v>
+        <v>3913</v>
       </c>
       <c r="Q4" t="n">
-        <v>111119</v>
+        <v>99531</v>
       </c>
       <c r="R4" t="n">
-        <v>2472</v>
+        <v>2364</v>
       </c>
       <c r="S4" t="n">
-        <v>26319</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>32797</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1798198</v>
+      </c>
       <c r="U4" t="n">
-        <v>352010</v>
+        <v>673553</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>33111</v>
+        <v>19501</v>
       </c>
       <c r="X4" t="n">
-        <v>94986</v>
+        <v>74077</v>
       </c>
       <c r="Y4" t="n">
-        <v>156175</v>
+        <v>149033</v>
       </c>
       <c r="Z4" t="n">
-        <v>3750</v>
+        <v>5951</v>
       </c>
       <c r="AA4" t="n">
-        <v>24328</v>
+        <v>49187</v>
       </c>
       <c r="AB4" t="n">
-        <v>325414</v>
+        <v>607050</v>
       </c>
       <c r="AC4" t="n">
-        <v>15593</v>
+        <v>25362</v>
       </c>
       <c r="AD4" t="n">
-        <v>223980</v>
+        <v>442967</v>
       </c>
       <c r="AE4" t="n">
-        <v>63343</v>
+        <v>104969</v>
       </c>
       <c r="AF4" t="n">
-        <v>22498</v>
+        <v>33752</v>
       </c>
       <c r="AG4" t="n">
-        <v>16490</v>
+        <v>7717</v>
       </c>
       <c r="AH4" t="n">
-        <v>22952</v>
+        <v>16690</v>
       </c>
       <c r="AI4" t="n">
-        <v>69121</v>
+        <v>74723</v>
       </c>
       <c r="AJ4" t="n">
-        <v>79235</v>
+        <v>51213</v>
       </c>
       <c r="AK4" t="n">
-        <v>2055</v>
+        <v>1122</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>347145</v>
+      </c>
       <c r="C5" t="n">
-        <v>24795</v>
+        <v>14458</v>
       </c>
       <c r="D5" t="n">
-        <v>65545</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
-        <v>1744142</v>
+        <v>2094185</v>
       </c>
       <c r="F5" t="n">
-        <v>15465</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>21316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46953</v>
+      </c>
+      <c r="H5" t="n">
+        <v>805</v>
+      </c>
       <c r="I5" t="n">
-        <v>372883</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>722664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>801</v>
+      </c>
       <c r="K5" t="n">
-        <v>1309</v>
+        <v>220</v>
       </c>
       <c r="L5" t="n">
-        <v>1458534</v>
+        <v>1854243</v>
       </c>
       <c r="M5" t="n">
-        <v>3317</v>
+        <v>718</v>
       </c>
       <c r="N5" t="n">
-        <v>466812</v>
+        <v>296824</v>
       </c>
       <c r="O5" t="n">
-        <v>22440</v>
+        <v>58988</v>
       </c>
       <c r="P5" t="n">
-        <v>7484</v>
+        <v>2090</v>
       </c>
       <c r="Q5" t="n">
-        <v>123024</v>
+        <v>96636</v>
       </c>
       <c r="R5" t="n">
-        <v>2469</v>
+        <v>1995</v>
       </c>
       <c r="S5" t="n">
-        <v>30215</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>34841</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1700087</v>
+      </c>
       <c r="U5" t="n">
-        <v>395323</v>
+        <v>781652</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>31320</v>
+        <v>16816</v>
       </c>
       <c r="X5" t="n">
-        <v>97310</v>
+        <v>70050</v>
       </c>
       <c r="Y5" t="n">
-        <v>162584</v>
+        <v>143306</v>
       </c>
       <c r="Z5" t="n">
-        <v>3820</v>
+        <v>5403</v>
       </c>
       <c r="AA5" t="n">
-        <v>30134</v>
+        <v>50236</v>
       </c>
       <c r="AB5" t="n">
-        <v>393052</v>
+        <v>627082</v>
       </c>
       <c r="AC5" t="n">
-        <v>16774</v>
+        <v>17498</v>
       </c>
       <c r="AD5" t="n">
-        <v>275871</v>
+        <v>507793</v>
       </c>
       <c r="AE5" t="n">
-        <v>74037</v>
+        <v>65633</v>
       </c>
       <c r="AF5" t="n">
-        <v>26370</v>
+        <v>36158</v>
       </c>
       <c r="AG5" t="n">
-        <v>13954</v>
+        <v>3911</v>
       </c>
       <c r="AH5" t="n">
-        <v>22958</v>
+        <v>7633</v>
       </c>
       <c r="AI5" t="n">
-        <v>78084</v>
+        <v>76515</v>
       </c>
       <c r="AJ5" t="n">
-        <v>72886</v>
+        <v>39310</v>
       </c>
       <c r="AK5" t="n">
-        <v>1844</v>
+        <v>883</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253496</v>
+        <v>346298</v>
       </c>
       <c r="C6" t="n">
-        <v>21869</v>
+        <v>12465</v>
       </c>
       <c r="D6" t="n">
-        <v>59001</v>
+        <v>38127</v>
       </c>
       <c r="E6" t="n">
-        <v>1998667</v>
+        <v>1979000</v>
       </c>
       <c r="F6" t="n">
-        <v>22241</v>
+        <v>18442</v>
       </c>
       <c r="G6" t="n">
-        <v>35449</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>42653</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1575</v>
+      </c>
       <c r="I6" t="n">
-        <v>447268</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>712146</v>
+      </c>
+      <c r="J6" t="n">
+        <v>330</v>
+      </c>
       <c r="K6" t="n">
-        <v>1809</v>
+        <v>143</v>
       </c>
       <c r="L6" t="n">
-        <v>1719614</v>
+        <v>1761990</v>
       </c>
       <c r="M6" t="n">
-        <v>1990</v>
+        <v>643</v>
       </c>
       <c r="N6" t="n">
-        <v>489161</v>
+        <v>262287</v>
       </c>
       <c r="O6" t="n">
-        <v>24103</v>
+        <v>59185</v>
       </c>
       <c r="P6" t="n">
-        <v>4991</v>
+        <v>1541</v>
       </c>
       <c r="Q6" t="n">
-        <v>118600</v>
+        <v>85878</v>
       </c>
       <c r="R6" t="n">
-        <v>3445</v>
+        <v>2422</v>
       </c>
       <c r="S6" t="n">
-        <v>34285</v>
+        <v>31289</v>
       </c>
       <c r="T6" t="n">
-        <v>1709722</v>
+        <v>1589571</v>
       </c>
       <c r="U6" t="n">
-        <v>471371</v>
+        <v>771331</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>23758</v>
+        <v>16070</v>
       </c>
       <c r="X6" t="n">
-        <v>85825</v>
+        <v>60904</v>
       </c>
       <c r="Y6" t="n">
-        <v>160453</v>
+        <v>130654</v>
       </c>
       <c r="Z6" t="n">
-        <v>3984</v>
+        <v>5205</v>
       </c>
       <c r="AA6" t="n">
-        <v>46886</v>
+        <v>48145</v>
       </c>
       <c r="AB6" t="n">
-        <v>553751</v>
+        <v>596034</v>
       </c>
       <c r="AC6" t="n">
-        <v>31113</v>
+        <v>15631</v>
       </c>
       <c r="AD6" t="n">
-        <v>373097</v>
+        <v>492492</v>
       </c>
       <c r="AE6" t="n">
-        <v>117505</v>
+        <v>55531</v>
       </c>
       <c r="AF6" t="n">
-        <v>32036</v>
+        <v>32380</v>
       </c>
       <c r="AG6" t="n">
-        <v>9846</v>
+        <v>2925</v>
       </c>
       <c r="AH6" t="n">
-        <v>24223</v>
+        <v>6088</v>
       </c>
       <c r="AI6" t="n">
-        <v>77735</v>
+        <v>71531</v>
       </c>
       <c r="AJ6" t="n">
-        <v>71286</v>
+        <v>33352</v>
       </c>
       <c r="AK6" t="n">
-        <v>1056</v>
+        <v>598</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>277076</v>
+        <v>347141</v>
       </c>
       <c r="C7" t="n">
-        <v>18123</v>
+        <v>10740</v>
       </c>
       <c r="D7" t="n">
-        <v>55170</v>
+        <v>34798</v>
       </c>
       <c r="E7" t="n">
-        <v>2000484</v>
+        <v>1911615</v>
       </c>
       <c r="F7" t="n">
-        <v>29205</v>
+        <v>16658</v>
       </c>
       <c r="G7" t="n">
-        <v>40740</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>43444</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2222</v>
+      </c>
       <c r="I7" t="n">
-        <v>478116</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>700145</v>
+      </c>
+      <c r="J7" t="n">
+        <v>666</v>
+      </c>
       <c r="K7" t="n">
-        <v>1114</v>
+        <v>203</v>
       </c>
       <c r="L7" t="n">
-        <v>1723154</v>
+        <v>1704671</v>
       </c>
       <c r="M7" t="n">
-        <v>2454</v>
+        <v>424</v>
       </c>
       <c r="N7" t="n">
-        <v>459057</v>
+        <v>243635</v>
       </c>
       <c r="O7" t="n">
-        <v>22834</v>
+        <v>59682</v>
       </c>
       <c r="P7" t="n">
-        <v>5398</v>
+        <v>1983</v>
       </c>
       <c r="Q7" t="n">
-        <v>115594</v>
+        <v>79752</v>
       </c>
       <c r="R7" t="n">
-        <v>3311</v>
+        <v>2178</v>
       </c>
       <c r="S7" t="n">
-        <v>38990</v>
+        <v>29814</v>
       </c>
       <c r="T7" t="n">
-        <v>1682668</v>
+        <v>1521030</v>
       </c>
       <c r="U7" t="n">
-        <v>500950</v>
+        <v>759827</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>23428</v>
+        <v>13653</v>
       </c>
       <c r="X7" t="n">
-        <v>86043</v>
+        <v>57407</v>
       </c>
       <c r="Y7" t="n">
-        <v>161736</v>
+        <v>127192</v>
       </c>
       <c r="Z7" t="n">
-        <v>5233</v>
+        <v>4138</v>
       </c>
       <c r="AA7" t="n">
-        <v>47032</v>
+        <v>51328</v>
       </c>
       <c r="AB7" t="n">
-        <v>566292</v>
+        <v>580828</v>
       </c>
       <c r="AC7" t="n">
-        <v>29949</v>
+        <v>14618</v>
       </c>
       <c r="AD7" t="n">
-        <v>383248</v>
+        <v>483942</v>
       </c>
       <c r="AE7" t="n">
-        <v>118292</v>
+        <v>51675</v>
       </c>
       <c r="AF7" t="n">
-        <v>34803</v>
+        <v>30593</v>
       </c>
       <c r="AG7" t="n">
-        <v>10069</v>
+        <v>3141</v>
       </c>
       <c r="AH7" t="n">
-        <v>20584</v>
+        <v>5317</v>
       </c>
       <c r="AI7" t="n">
-        <v>71576</v>
+        <v>67434</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65421</v>
+        <v>27831</v>
       </c>
       <c r="AK7" t="n">
-        <v>1103</v>
+        <v>531</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308060</v>
+        <v>355261</v>
       </c>
       <c r="C8" t="n">
-        <v>17410</v>
+        <v>11526</v>
       </c>
       <c r="D8" t="n">
-        <v>53722</v>
+        <v>28488</v>
       </c>
       <c r="E8" t="n">
-        <v>2108179</v>
+        <v>1863303</v>
       </c>
       <c r="F8" t="n">
-        <v>32123</v>
+        <v>12879</v>
       </c>
       <c r="G8" t="n">
-        <v>42347</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>41767</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1948</v>
+      </c>
       <c r="I8" t="n">
-        <v>533054</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>698852</v>
+      </c>
+      <c r="J8" t="n">
+        <v>818</v>
+      </c>
       <c r="K8" t="n">
-        <v>1681</v>
+        <v>67</v>
       </c>
       <c r="L8" t="n">
-        <v>1836644</v>
+        <v>1666152</v>
       </c>
       <c r="M8" t="n">
-        <v>2558</v>
+        <v>345</v>
       </c>
       <c r="N8" t="n">
-        <v>451920</v>
+        <v>219198</v>
       </c>
       <c r="O8" t="n">
-        <v>22533</v>
+        <v>69938</v>
       </c>
       <c r="P8" t="n">
-        <v>4881</v>
+        <v>1262</v>
       </c>
       <c r="Q8" t="n">
-        <v>113343</v>
+        <v>69641</v>
       </c>
       <c r="R8" t="n">
-        <v>2739</v>
+        <v>2002</v>
       </c>
       <c r="S8" t="n">
-        <v>39472</v>
+        <v>25677</v>
       </c>
       <c r="T8" t="n">
-        <v>1757772</v>
+        <v>1466275</v>
       </c>
       <c r="U8" t="n">
-        <v>555587</v>
+        <v>768790</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>22692</v>
+        <v>12792</v>
       </c>
       <c r="X8" t="n">
-        <v>80639</v>
+        <v>56929</v>
       </c>
       <c r="Y8" t="n">
-        <v>158192</v>
+        <v>127510</v>
       </c>
       <c r="Z8" t="n">
-        <v>4027</v>
+        <v>4608</v>
       </c>
       <c r="AA8" t="n">
-        <v>50834</v>
+        <v>52363</v>
       </c>
       <c r="AB8" t="n">
-        <v>626475</v>
+        <v>573239</v>
       </c>
       <c r="AC8" t="n">
-        <v>30476</v>
+        <v>13606</v>
       </c>
       <c r="AD8" t="n">
-        <v>431137</v>
+        <v>487331</v>
       </c>
       <c r="AE8" t="n">
-        <v>126260</v>
+        <v>43388</v>
       </c>
       <c r="AF8" t="n">
-        <v>38602</v>
+        <v>28914</v>
       </c>
       <c r="AG8" t="n">
-        <v>10472</v>
+        <v>2214</v>
       </c>
       <c r="AH8" t="n">
-        <v>21322</v>
+        <v>4777</v>
       </c>
       <c r="AI8" t="n">
-        <v>76564</v>
+        <v>61271</v>
       </c>
       <c r="AJ8" t="n">
-        <v>62181</v>
+        <v>23784</v>
       </c>
       <c r="AK8" t="n">
-        <v>1352</v>
+        <v>540</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345890</v>
+        <v>372781</v>
       </c>
       <c r="C9" t="n">
-        <v>16433</v>
+        <v>10495</v>
       </c>
       <c r="D9" t="n">
-        <v>47604</v>
+        <v>26091</v>
       </c>
       <c r="E9" t="n">
-        <v>2156638</v>
+        <v>1820851</v>
       </c>
       <c r="F9" t="n">
-        <v>72957</v>
+        <v>9424</v>
       </c>
       <c r="G9" t="n">
-        <v>41732</v>
+        <v>41952</v>
       </c>
       <c r="H9" t="n">
-        <v>906</v>
+        <v>2589</v>
       </c>
       <c r="I9" t="n">
-        <v>600930</v>
+        <v>673382</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>1161</v>
       </c>
       <c r="K9" t="n">
-        <v>1736</v>
+        <v>145</v>
       </c>
       <c r="L9" t="n">
-        <v>1897017</v>
+        <v>1637086</v>
       </c>
       <c r="M9" t="n">
-        <v>1431</v>
+        <v>118</v>
       </c>
       <c r="N9" t="n">
-        <v>424571</v>
+        <v>191630</v>
       </c>
       <c r="O9" t="n">
-        <v>22673</v>
+        <v>73871</v>
       </c>
       <c r="P9" t="n">
-        <v>4052</v>
+        <v>1361</v>
       </c>
       <c r="Q9" t="n">
-        <v>106621</v>
+        <v>63191</v>
       </c>
       <c r="R9" t="n">
-        <v>3839</v>
+        <v>1019</v>
       </c>
       <c r="S9" t="n">
-        <v>37839</v>
+        <v>22997</v>
       </c>
       <c r="T9" t="n">
-        <v>1769016</v>
+        <v>1406118</v>
       </c>
       <c r="U9" t="n">
-        <v>623603</v>
+        <v>747253</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>20407</v>
+        <v>10339</v>
       </c>
       <c r="X9" t="n">
-        <v>78299</v>
+        <v>53338</v>
       </c>
       <c r="Y9" t="n">
-        <v>153000</v>
+        <v>120574</v>
       </c>
       <c r="Z9" t="n">
-        <v>5484</v>
+        <v>4548</v>
       </c>
       <c r="AA9" t="n">
-        <v>48204</v>
+        <v>51188</v>
       </c>
       <c r="AB9" t="n">
-        <v>610168</v>
+        <v>606523</v>
       </c>
       <c r="AC9" t="n">
-        <v>28370</v>
+        <v>12604</v>
       </c>
       <c r="AD9" t="n">
-        <v>443360</v>
+        <v>528491</v>
       </c>
       <c r="AE9" t="n">
-        <v>102348</v>
+        <v>38904</v>
       </c>
       <c r="AF9" t="n">
-        <v>36090</v>
+        <v>26524</v>
       </c>
       <c r="AG9" t="n">
-        <v>8417</v>
+        <v>1925</v>
       </c>
       <c r="AH9" t="n">
-        <v>18378</v>
+        <v>4145</v>
       </c>
       <c r="AI9" t="n">
-        <v>81131</v>
+        <v>56781</v>
       </c>
       <c r="AJ9" t="n">
-        <v>57792</v>
+        <v>19405</v>
       </c>
       <c r="AK9" t="n">
-        <v>1198</v>
+        <v>301</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330929</v>
+        <v>375524</v>
       </c>
       <c r="C10" t="n">
-        <v>16566</v>
+        <v>8133</v>
       </c>
       <c r="D10" t="n">
-        <v>46639</v>
+        <v>26270</v>
       </c>
       <c r="E10" t="n">
-        <v>2169873</v>
+        <v>1780000</v>
       </c>
       <c r="F10" t="n">
-        <v>77246</v>
+        <v>1171</v>
       </c>
       <c r="G10" t="n">
-        <v>40746</v>
+        <v>37737</v>
       </c>
       <c r="H10" t="n">
-        <v>1165</v>
+        <v>2198</v>
       </c>
       <c r="I10" t="n">
-        <v>647582</v>
+        <v>623517</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1269</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1921309</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1413</v>
-      </c>
+        <v>1607052</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>413117</v>
+        <v>161627</v>
       </c>
       <c r="O10" t="n">
-        <v>25971</v>
+        <v>77623</v>
       </c>
       <c r="P10" t="n">
-        <v>3913</v>
+        <v>1601</v>
       </c>
       <c r="Q10" t="n">
-        <v>99531</v>
+        <v>60359</v>
       </c>
       <c r="R10" t="n">
-        <v>2364</v>
+        <v>1128</v>
       </c>
       <c r="S10" t="n">
-        <v>32797</v>
+        <v>22630</v>
       </c>
       <c r="T10" t="n">
-        <v>1798198</v>
+        <v>1363368</v>
       </c>
       <c r="U10" t="n">
-        <v>673553</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>701140</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3483</v>
+      </c>
       <c r="W10" t="n">
-        <v>19501</v>
+        <v>10556</v>
       </c>
       <c r="X10" t="n">
-        <v>74077</v>
+        <v>47122</v>
       </c>
       <c r="Y10" t="n">
-        <v>149033</v>
+        <v>112952</v>
       </c>
       <c r="Z10" t="n">
-        <v>5951</v>
+        <v>2991</v>
       </c>
       <c r="AA10" t="n">
-        <v>49187</v>
+        <v>51395</v>
       </c>
       <c r="AB10" t="n">
-        <v>607050</v>
+        <v>664225</v>
       </c>
       <c r="AC10" t="n">
-        <v>25362</v>
+        <v>10211</v>
       </c>
       <c r="AD10" t="n">
-        <v>442967</v>
+        <v>600800</v>
       </c>
       <c r="AE10" t="n">
-        <v>104969</v>
+        <v>36892</v>
       </c>
       <c r="AF10" t="n">
-        <v>33752</v>
+        <v>16322</v>
       </c>
       <c r="AG10" t="n">
-        <v>7717</v>
+        <v>2183</v>
       </c>
       <c r="AH10" t="n">
-        <v>16690</v>
+        <v>3196</v>
       </c>
       <c r="AI10" t="n">
-        <v>74723</v>
+        <v>57125</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51213</v>
+        <v>16385</v>
       </c>
       <c r="AK10" t="n">
-        <v>1122</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347145</v>
+        <v>440134</v>
       </c>
       <c r="C11" t="n">
-        <v>14458</v>
+        <v>6685</v>
       </c>
       <c r="D11" t="n">
-        <v>44537</v>
+        <v>22322</v>
       </c>
       <c r="E11" t="n">
-        <v>2094185</v>
+        <v>1819634</v>
       </c>
       <c r="F11" t="n">
-        <v>21316</v>
+        <v>398</v>
       </c>
       <c r="G11" t="n">
-        <v>46953</v>
+        <v>51305</v>
       </c>
       <c r="H11" t="n">
-        <v>805</v>
+        <v>1353</v>
       </c>
       <c r="I11" t="n">
-        <v>722664</v>
+        <v>611560</v>
       </c>
       <c r="J11" t="n">
-        <v>801</v>
-      </c>
-      <c r="K11" t="n">
-        <v>220</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1854243</v>
-      </c>
-      <c r="M11" t="n">
-        <v>718</v>
-      </c>
+        <v>1647050</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>296824</v>
+        <v>149642</v>
       </c>
       <c r="O11" t="n">
-        <v>58988</v>
+        <v>84073</v>
       </c>
       <c r="P11" t="n">
-        <v>2090</v>
+        <v>1026</v>
       </c>
       <c r="Q11" t="n">
-        <v>96636</v>
+        <v>61756</v>
       </c>
       <c r="R11" t="n">
-        <v>1995</v>
+        <v>5952</v>
       </c>
       <c r="S11" t="n">
-        <v>34841</v>
+        <v>25444</v>
       </c>
       <c r="T11" t="n">
-        <v>1700087</v>
+        <v>1322680</v>
       </c>
       <c r="U11" t="n">
-        <v>781652</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>695633</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4852</v>
+      </c>
       <c r="W11" t="n">
-        <v>16816</v>
+        <v>8963</v>
       </c>
       <c r="X11" t="n">
-        <v>70050</v>
+        <v>46697</v>
       </c>
       <c r="Y11" t="n">
-        <v>143306</v>
+        <v>110828</v>
       </c>
       <c r="Z11" t="n">
-        <v>5403</v>
+        <v>1790</v>
       </c>
       <c r="AA11" t="n">
-        <v>50236</v>
+        <v>52669</v>
       </c>
       <c r="AB11" t="n">
-        <v>627082</v>
+        <v>733453</v>
       </c>
       <c r="AC11" t="n">
-        <v>17498</v>
+        <v>9291</v>
       </c>
       <c r="AD11" t="n">
-        <v>507793</v>
+        <v>672355</v>
       </c>
       <c r="AE11" t="n">
-        <v>65633</v>
+        <v>34421</v>
       </c>
       <c r="AF11" t="n">
-        <v>36158</v>
+        <v>17386</v>
       </c>
       <c r="AG11" t="n">
-        <v>3911</v>
+        <v>1367</v>
       </c>
       <c r="AH11" t="n">
-        <v>7633</v>
+        <v>2827</v>
       </c>
       <c r="AI11" t="n">
-        <v>76515</v>
+        <v>49962</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39310</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>883</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>13768</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>663</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>346298</v>
+        <v>424873</v>
       </c>
       <c r="C12" t="n">
-        <v>12465</v>
+        <v>4230</v>
       </c>
       <c r="D12" t="n">
-        <v>38127</v>
+        <v>19534</v>
       </c>
       <c r="E12" t="n">
-        <v>1979000</v>
+        <v>1666224</v>
       </c>
       <c r="F12" t="n">
-        <v>18442</v>
+        <v>791</v>
       </c>
       <c r="G12" t="n">
-        <v>42653</v>
+        <v>45583</v>
       </c>
       <c r="H12" t="n">
-        <v>1575</v>
+        <v>929</v>
       </c>
       <c r="I12" t="n">
-        <v>712146</v>
+        <v>453808</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
-      </c>
-      <c r="K12" t="n">
-        <v>143</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1761990</v>
-      </c>
-      <c r="M12" t="n">
-        <v>643</v>
-      </c>
+        <v>1520582</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>262287</v>
+        <v>144216</v>
       </c>
       <c r="O12" t="n">
-        <v>59185</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1541</v>
-      </c>
+        <v>77817</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>85878</v>
+        <v>50817</v>
       </c>
       <c r="R12" t="n">
-        <v>2422</v>
+        <v>1243</v>
       </c>
       <c r="S12" t="n">
-        <v>31289</v>
+        <v>24881</v>
       </c>
       <c r="T12" t="n">
-        <v>1589571</v>
+        <v>1190223</v>
       </c>
       <c r="U12" t="n">
-        <v>771331</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>531625</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4826</v>
+      </c>
       <c r="W12" t="n">
-        <v>16070</v>
+        <v>8154</v>
       </c>
       <c r="X12" t="n">
-        <v>60904</v>
+        <v>38816</v>
       </c>
       <c r="Y12" t="n">
-        <v>130654</v>
+        <v>94825</v>
       </c>
       <c r="Z12" t="n">
-        <v>5205</v>
+        <v>995</v>
       </c>
       <c r="AA12" t="n">
-        <v>48145</v>
+        <v>46486</v>
       </c>
       <c r="AB12" t="n">
-        <v>596034</v>
+        <v>795752</v>
       </c>
       <c r="AC12" t="n">
-        <v>15631</v>
+        <v>7558</v>
       </c>
       <c r="AD12" t="n">
-        <v>492492</v>
+        <v>739774</v>
       </c>
       <c r="AE12" t="n">
-        <v>55531</v>
+        <v>38020</v>
       </c>
       <c r="AF12" t="n">
-        <v>32380</v>
+        <v>10400</v>
       </c>
       <c r="AG12" t="n">
-        <v>2925</v>
+        <v>1833</v>
       </c>
       <c r="AH12" t="n">
-        <v>6088</v>
+        <v>3110</v>
       </c>
       <c r="AI12" t="n">
-        <v>71531</v>
+        <v>31753</v>
       </c>
       <c r="AJ12" t="n">
-        <v>33352</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>598</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>11502</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>719</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347141</v>
+        <v>449821</v>
       </c>
       <c r="C13" t="n">
-        <v>10740</v>
+        <v>3965</v>
       </c>
       <c r="D13" t="n">
-        <v>34798</v>
+        <v>18562</v>
       </c>
       <c r="E13" t="n">
-        <v>1911615</v>
+        <v>1661129</v>
       </c>
       <c r="F13" t="n">
-        <v>16658</v>
+        <v>361</v>
       </c>
       <c r="G13" t="n">
-        <v>43444</v>
+        <v>46127</v>
       </c>
       <c r="H13" t="n">
-        <v>2222</v>
+        <v>1208</v>
       </c>
       <c r="I13" t="n">
-        <v>700145</v>
+        <v>440457</v>
       </c>
       <c r="J13" t="n">
-        <v>666</v>
-      </c>
-      <c r="K13" t="n">
-        <v>203</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1704671</v>
-      </c>
-      <c r="M13" t="n">
-        <v>424</v>
-      </c>
+        <v>1518717</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>243635</v>
+        <v>121555</v>
       </c>
       <c r="O13" t="n">
-        <v>59682</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1983</v>
-      </c>
+        <v>88404</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>79752</v>
+        <v>50991</v>
       </c>
       <c r="R13" t="n">
-        <v>2178</v>
+        <v>1057</v>
       </c>
       <c r="S13" t="n">
-        <v>29814</v>
+        <v>26199</v>
       </c>
       <c r="T13" t="n">
-        <v>1521030</v>
+        <v>1157872</v>
       </c>
       <c r="U13" t="n">
-        <v>759827</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>528861</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6661</v>
+      </c>
       <c r="W13" t="n">
-        <v>13653</v>
+        <v>7512</v>
       </c>
       <c r="X13" t="n">
-        <v>57407</v>
+        <v>34689</v>
       </c>
       <c r="Y13" t="n">
-        <v>127192</v>
+        <v>91421</v>
       </c>
       <c r="Z13" t="n">
-        <v>4138</v>
+        <v>4083</v>
       </c>
       <c r="AA13" t="n">
-        <v>51328</v>
+        <v>44074</v>
       </c>
       <c r="AB13" t="n">
-        <v>580828</v>
+        <v>835512</v>
       </c>
       <c r="AC13" t="n">
-        <v>14618</v>
+        <v>6953</v>
       </c>
       <c r="AD13" t="n">
-        <v>483942</v>
+        <v>781498</v>
       </c>
       <c r="AE13" t="n">
-        <v>51675</v>
+        <v>35992</v>
       </c>
       <c r="AF13" t="n">
-        <v>30593</v>
+        <v>11069</v>
       </c>
       <c r="AG13" t="n">
-        <v>3141</v>
+        <v>877</v>
       </c>
       <c r="AH13" t="n">
-        <v>5317</v>
+        <v>2291</v>
       </c>
       <c r="AI13" t="n">
-        <v>67434</v>
+        <v>20385</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27831</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>531</v>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>355261</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11526</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28488</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1863303</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12879</v>
-      </c>
-      <c r="G14" t="n">
-        <v>41767</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1948</v>
-      </c>
-      <c r="I14" t="n">
-        <v>698852</v>
-      </c>
-      <c r="J14" t="n">
-        <v>818</v>
-      </c>
-      <c r="K14" t="n">
-        <v>67</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1666152</v>
-      </c>
-      <c r="M14" t="n">
-        <v>345</v>
-      </c>
-      <c r="N14" t="n">
-        <v>219198</v>
-      </c>
-      <c r="O14" t="n">
-        <v>69938</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1262</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>69641</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2002</v>
-      </c>
-      <c r="S14" t="n">
-        <v>25677</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1466275</v>
-      </c>
-      <c r="U14" t="n">
-        <v>768790</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>12792</v>
-      </c>
-      <c r="X14" t="n">
-        <v>56929</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>127510</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4608</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>52363</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>573239</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13606</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>487331</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>43388</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>28914</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2214</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>4777</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>61271</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>23784</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>540</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>372781</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10495</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26091</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1820851</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9424</v>
-      </c>
-      <c r="G15" t="n">
-        <v>41952</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2589</v>
-      </c>
-      <c r="I15" t="n">
-        <v>673382</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1161</v>
-      </c>
-      <c r="K15" t="n">
-        <v>145</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1637086</v>
-      </c>
-      <c r="M15" t="n">
-        <v>118</v>
-      </c>
-      <c r="N15" t="n">
-        <v>191630</v>
-      </c>
-      <c r="O15" t="n">
-        <v>73871</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1361</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>63191</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1019</v>
-      </c>
-      <c r="S15" t="n">
-        <v>22997</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1406118</v>
-      </c>
-      <c r="U15" t="n">
-        <v>747253</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>10339</v>
-      </c>
-      <c r="X15" t="n">
-        <v>53338</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>120574</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4548</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>51188</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>606523</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12604</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>528491</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38904</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>26524</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>4145</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>56781</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19405</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>375524</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8133</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26270</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1171</v>
-      </c>
-      <c r="G16" t="n">
-        <v>37737</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2198</v>
-      </c>
-      <c r="I16" t="n">
-        <v>623517</v>
-      </c>
-      <c r="J16" t="n">
-        <v>888</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1607052</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>161627</v>
-      </c>
-      <c r="O16" t="n">
-        <v>77623</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1601</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>60359</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1128</v>
-      </c>
-      <c r="S16" t="n">
-        <v>22630</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1363368</v>
-      </c>
-      <c r="U16" t="n">
-        <v>701140</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3483</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10556</v>
-      </c>
-      <c r="X16" t="n">
-        <v>47122</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>112952</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2991</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>51395</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>664225</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10211</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>600800</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>36892</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16322</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2183</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3196</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>57125</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>16385</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>440134</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6685</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22322</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1819634</v>
-      </c>
-      <c r="F17" t="n">
-        <v>398</v>
-      </c>
-      <c r="G17" t="n">
-        <v>51305</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1353</v>
-      </c>
-      <c r="I17" t="n">
-        <v>611560</v>
-      </c>
-      <c r="J17" t="n">
-        <v>709</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1647050</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>149642</v>
-      </c>
-      <c r="O17" t="n">
-        <v>84073</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1026</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>61756</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5952</v>
-      </c>
-      <c r="S17" t="n">
-        <v>25444</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1322680</v>
-      </c>
-      <c r="U17" t="n">
-        <v>695633</v>
-      </c>
-      <c r="V17" t="n">
-        <v>4852</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8963</v>
-      </c>
-      <c r="X17" t="n">
-        <v>46697</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>110828</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1790</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>52669</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>733453</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9291</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>672355</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>34421</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17386</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1367</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>2827</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>49962</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13768</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="n">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>424873</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4230</v>
-      </c>
-      <c r="D18" t="n">
-        <v>19534</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1666224</v>
-      </c>
-      <c r="F18" t="n">
-        <v>791</v>
-      </c>
-      <c r="G18" t="n">
-        <v>45583</v>
-      </c>
-      <c r="H18" t="n">
-        <v>929</v>
-      </c>
-      <c r="I18" t="n">
-        <v>453808</v>
-      </c>
-      <c r="J18" t="n">
-        <v>374</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1520582</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>144216</v>
-      </c>
-      <c r="O18" t="n">
-        <v>77817</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>50817</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1243</v>
-      </c>
-      <c r="S18" t="n">
-        <v>24881</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1190223</v>
-      </c>
-      <c r="U18" t="n">
-        <v>531625</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4826</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8154</v>
-      </c>
-      <c r="X18" t="n">
-        <v>38816</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>94825</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>995</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>46486</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>795752</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7558</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>739774</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38020</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10400</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1833</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3110</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>31753</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11502</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>719</v>
+        <v>8875</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
